--- a/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -3950,31 +3950,31 @@
         <v>110</v>
       </c>
       <c r="B102">
-        <v>110.3</v>
+        <v>110.5</v>
       </c>
       <c r="C102">
-        <v>108.4</v>
+        <v>108.9</v>
       </c>
       <c r="D102">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E102">
-        <v>105.9</v>
+        <v>106.7</v>
       </c>
       <c r="F102">
-        <v>123.3</v>
+        <v>124.1</v>
       </c>
       <c r="G102">
-        <v>133.6</v>
+        <v>133</v>
       </c>
       <c r="H102">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="I102">
-        <v>109.6</v>
+        <v>109.9</v>
       </c>
       <c r="J102">
-        <v>112.3</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3982,31 +3982,31 @@
         <v>111</v>
       </c>
       <c r="B103">
-        <v>114.4</v>
+        <v>115.1</v>
       </c>
       <c r="C103">
-        <v>101.4</v>
+        <v>102.7</v>
       </c>
       <c r="D103">
-        <v>98.09999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="E103">
-        <v>106.8</v>
+        <v>108.2</v>
       </c>
       <c r="F103">
-        <v>100.2</v>
+        <v>101.2</v>
       </c>
       <c r="G103">
-        <v>130.7</v>
+        <v>130</v>
       </c>
       <c r="H103">
-        <v>119.8</v>
+        <v>120.2</v>
       </c>
       <c r="I103">
-        <v>113.6</v>
+        <v>114.3</v>
       </c>
       <c r="J103">
-        <v>116.6</v>
+        <v>117.1</v>
       </c>
     </row>
   </sheetData>

--- a/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Serie</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4009,6 +4012,38 @@
         <v>117.1</v>
       </c>
     </row>
+    <row r="104" spans="1:10">
+      <c r="A104" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104">
+        <v>117.7</v>
+      </c>
+      <c r="C104">
+        <v>100.5</v>
+      </c>
+      <c r="D104">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E104">
+        <v>108.8</v>
+      </c>
+      <c r="F104">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="G104">
+        <v>136.2</v>
+      </c>
+      <c r="H104">
+        <v>124</v>
+      </c>
+      <c r="I104">
+        <v>115.9</v>
+      </c>
+      <c r="J104">
+        <v>120.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
